--- a/mockup.xlsx
+++ b/mockup.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="00-login" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="01-welcome" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -19,16 +21,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">(handled by keycloak)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You do not have any subscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi, LandLord, view your subscribed properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subscribe now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -45,16 +89,29 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF729FCF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -62,6 +119,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -88,8 +187,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -102,7 +245,299 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>489960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="489960" y="486360"/>
+          <a:ext cx="310680" cy="165240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>489960</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="489960" y="324000"/>
+          <a:ext cx="310680" cy="165240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>310680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4956840" y="325440"/>
+          <a:ext cx="310680" cy="165240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>126360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>783000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>159120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5536440" y="1264320"/>
+          <a:ext cx="203400" cy="195120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>782640</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5536080" y="1444680"/>
+          <a:ext cx="203400" cy="195120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579960</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>783360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5536800" y="1620000"/>
+          <a:ext cx="203400" cy="195120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -110,14 +545,66 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -125,5 +612,158 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:J13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.19"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="4"/>
+      <c r="G4" s="10"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="4"/>
+      <c r="G6" s="10"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="G8" s="10"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="4"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="4"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="4"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="4"/>
+      <c r="G12" s="10"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/mockup.xlsx
+++ b/mockup.xlsx
@@ -623,8 +623,8 @@
   </sheetPr>
   <dimension ref="A3:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
